--- a/Client/Dev/PandaVillage/Assets/Tables/animal_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/animal_data.xlsx
@@ -23,8 +23,121 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>서울IT</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서울</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>IT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>닭장</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>동물</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>외양간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>동물</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,7 +230,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>home_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Prefabs\Animal\Rabbit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheep_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Animal\Sheep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다 자란 양의 털을 깎을 수 있습니다. 주인과 사이가 좋은 양이 털을 더 빨리 생산합니다. 양털을 깎으려면 양털 가위가 필요합니다. 외양간에서 지냅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +294,34 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -150,12 +331,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -164,11 +360,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -450,11 +652,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -465,10 +667,12 @@
     <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="87.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,8 +691,17 @@
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -507,8 +720,17 @@
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>8000</v>
       </c>
@@ -527,8 +749,17 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3010</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>8001</v>
       </c>
@@ -547,8 +778,17 @@
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3008</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6006</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>8002</v>
       </c>
@@ -562,15 +802,54 @@
         <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3020</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>8003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3020</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6007</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>